--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H2">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I2">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J2">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N2">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O2">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P2">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q2">
-        <v>100.2354723123803</v>
+        <v>25.53270101822844</v>
       </c>
       <c r="R2">
-        <v>100.2354723123803</v>
+        <v>229.794309164056</v>
       </c>
       <c r="S2">
-        <v>0.09092288652385701</v>
+        <v>0.01906124153615013</v>
       </c>
       <c r="T2">
-        <v>0.09092288652385701</v>
+        <v>0.01906124153615012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H3">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I3">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J3">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N3">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O3">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P3">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q3">
-        <v>110.8516956728862</v>
+        <v>27.918832876844</v>
       </c>
       <c r="R3">
-        <v>110.8516956728862</v>
+        <v>251.269495891596</v>
       </c>
       <c r="S3">
-        <v>0.100552787492558</v>
+        <v>0.02084258992000121</v>
       </c>
       <c r="T3">
-        <v>0.100552787492558</v>
+        <v>0.0208425899200012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H4">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I4">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J4">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N4">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O4">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P4">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q4">
-        <v>93.32801957287288</v>
+        <v>23.57419273368755</v>
       </c>
       <c r="R4">
-        <v>93.32801957287288</v>
+        <v>212.167734603188</v>
       </c>
       <c r="S4">
-        <v>0.08465718509985552</v>
+        <v>0.01759913224205183</v>
       </c>
       <c r="T4">
-        <v>0.08465718509985552</v>
+        <v>0.01759913224205183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H5">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I5">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J5">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N5">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O5">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P5">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q5">
-        <v>111.8973118236825</v>
+        <v>29.51708566246845</v>
       </c>
       <c r="R5">
-        <v>111.8973118236825</v>
+        <v>265.653770962216</v>
       </c>
       <c r="S5">
-        <v>0.1015012584922264</v>
+        <v>0.0220357532426306</v>
       </c>
       <c r="T5">
-        <v>0.1015012584922264</v>
+        <v>0.02203575324263059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H6">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I6">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J6">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N6">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O6">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P6">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q6">
-        <v>17.51307105052787</v>
+        <v>4.560812851261334</v>
       </c>
       <c r="R6">
-        <v>17.51307105052787</v>
+        <v>41.04731566135199</v>
       </c>
       <c r="S6">
-        <v>0.01588598262747665</v>
+        <v>0.00340483975028748</v>
       </c>
       <c r="T6">
-        <v>0.01588598262747665</v>
+        <v>0.003404839750287479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H7">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I7">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J7">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.9014718238501</v>
+        <v>47.53430066666667</v>
       </c>
       <c r="N7">
-        <v>46.9014718238501</v>
+        <v>142.602902</v>
       </c>
       <c r="O7">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="P7">
-        <v>0.2310501711839757</v>
+        <v>0.2298097923041026</v>
       </c>
       <c r="Q7">
-        <v>154.479527638764</v>
+        <v>6.358552486811778</v>
       </c>
       <c r="R7">
-        <v>154.479527638764</v>
+        <v>57.22697238130601</v>
       </c>
       <c r="S7">
-        <v>0.1401272846601187</v>
+        <v>0.004746928446186647</v>
       </c>
       <c r="T7">
-        <v>0.1401272846601187</v>
+        <v>0.004746928446186646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H8">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I8">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J8">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.8689398202768</v>
+        <v>51.976569</v>
       </c>
       <c r="N8">
-        <v>51.8689398202768</v>
+        <v>155.929707</v>
       </c>
       <c r="O8">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922955</v>
       </c>
       <c r="P8">
-        <v>0.2555213505797078</v>
+        <v>0.2512864259922956</v>
       </c>
       <c r="Q8">
-        <v>170.8408928541398</v>
+        <v>6.952784356469001</v>
       </c>
       <c r="R8">
-        <v>170.8408928541398</v>
+        <v>62.57505920822101</v>
       </c>
       <c r="S8">
-        <v>0.1549685630871498</v>
+        <v>0.005190547677380711</v>
       </c>
       <c r="T8">
-        <v>0.1549685630871498</v>
+        <v>0.005190547677380711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H9">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I9">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J9">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.6693854919082</v>
+        <v>43.88814033333333</v>
       </c>
       <c r="N9">
-        <v>43.6693854919082</v>
+        <v>131.664421</v>
       </c>
       <c r="O9">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953617</v>
       </c>
       <c r="P9">
-        <v>0.2151279821515877</v>
+        <v>0.2121820300953618</v>
       </c>
       <c r="Q9">
-        <v>143.8339945578129</v>
+        <v>5.870814126729222</v>
       </c>
       <c r="R9">
-        <v>143.8339945578129</v>
+        <v>52.837327140563</v>
       </c>
       <c r="S9">
-        <v>0.1304707970517321</v>
+        <v>0.004382811125369626</v>
       </c>
       <c r="T9">
-        <v>0.1304707970517321</v>
+        <v>0.004382811125369626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H10">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I10">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J10">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.358197119153</v>
+        <v>54.95204066666667</v>
       </c>
       <c r="N10">
-        <v>52.358197119153</v>
+        <v>164.856122</v>
       </c>
       <c r="O10">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502996</v>
       </c>
       <c r="P10">
-        <v>0.2579315730793964</v>
+        <v>0.2656716702502997</v>
       </c>
       <c r="Q10">
-        <v>172.4523611830672</v>
+        <v>7.350806258551779</v>
       </c>
       <c r="R10">
-        <v>172.4523611830672</v>
+        <v>66.15725632696601</v>
       </c>
       <c r="S10">
-        <v>0.1564303145871699</v>
+        <v>0.005487687866617303</v>
       </c>
       <c r="T10">
-        <v>0.1564303145871699</v>
+        <v>0.005487687866617302</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1095,49 +1095,669 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H11">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I11">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J11">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.194592088772611</v>
+        <v>8.490878</v>
       </c>
       <c r="N11">
-        <v>8.194592088772611</v>
+        <v>25.472634</v>
       </c>
       <c r="O11">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794053</v>
       </c>
       <c r="P11">
-        <v>0.04036892300533226</v>
+        <v>0.04105008135794054</v>
       </c>
       <c r="Q11">
-        <v>26.9905541519108</v>
+        <v>1.135804938011334</v>
       </c>
       <c r="R11">
-        <v>26.9905541519108</v>
+        <v>10.222244442102</v>
       </c>
       <c r="S11">
-        <v>0.0244829403778556</v>
+        <v>0.0008479264393504498</v>
       </c>
       <c r="T11">
-        <v>0.0244829403778556</v>
+        <v>0.0008479264393504497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.280335</v>
+      </c>
+      <c r="H12">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J12">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>47.53430066666667</v>
+      </c>
+      <c r="N12">
+        <v>142.602902</v>
+      </c>
+      <c r="O12">
+        <v>0.2298097923041026</v>
+      </c>
+      <c r="P12">
+        <v>0.2298097923041026</v>
+      </c>
+      <c r="Q12">
+        <v>108.3941295107233</v>
+      </c>
+      <c r="R12">
+        <v>975.5471655965099</v>
+      </c>
+      <c r="S12">
+        <v>0.08092080356988379</v>
+      </c>
+      <c r="T12">
+        <v>0.08092080356988378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.280335</v>
+      </c>
+      <c r="H13">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J13">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>51.976569</v>
+      </c>
+      <c r="N13">
+        <v>155.929707</v>
+      </c>
+      <c r="O13">
+        <v>0.2512864259922955</v>
+      </c>
+      <c r="P13">
+        <v>0.2512864259922956</v>
+      </c>
+      <c r="Q13">
+        <v>118.523989470615</v>
+      </c>
+      <c r="R13">
+        <v>1066.715905235535</v>
+      </c>
+      <c r="S13">
+        <v>0.08848317259950667</v>
+      </c>
+      <c r="T13">
+        <v>0.08848317259950665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.280335</v>
+      </c>
+      <c r="H14">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J14">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.88814033333333</v>
+      </c>
+      <c r="N14">
+        <v>131.664421</v>
+      </c>
+      <c r="O14">
+        <v>0.2121820300953617</v>
+      </c>
+      <c r="P14">
+        <v>0.2121820300953618</v>
+      </c>
+      <c r="Q14">
+        <v>100.0796624870116</v>
+      </c>
+      <c r="R14">
+        <v>900.7169623831049</v>
+      </c>
+      <c r="S14">
+        <v>0.07471370217194796</v>
+      </c>
+      <c r="T14">
+        <v>0.07471370217194795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.280335</v>
+      </c>
+      <c r="H15">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J15">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>54.95204066666667</v>
+      </c>
+      <c r="N15">
+        <v>164.856122</v>
+      </c>
+      <c r="O15">
+        <v>0.2656716702502996</v>
+      </c>
+      <c r="P15">
+        <v>0.2656716702502997</v>
+      </c>
+      <c r="Q15">
+        <v>125.3090616536233</v>
+      </c>
+      <c r="R15">
+        <v>1127.78155488261</v>
+      </c>
+      <c r="S15">
+        <v>0.09354851604390771</v>
+      </c>
+      <c r="T15">
+        <v>0.0935485160439077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.280335</v>
+      </c>
+      <c r="H16">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J16">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.490878</v>
+      </c>
+      <c r="N16">
+        <v>25.472634</v>
+      </c>
+      <c r="O16">
+        <v>0.04105008135794053</v>
+      </c>
+      <c r="P16">
+        <v>0.04105008135794054</v>
+      </c>
+      <c r="Q16">
+        <v>19.36204628413</v>
+      </c>
+      <c r="R16">
+        <v>174.25841655717</v>
+      </c>
+      <c r="S16">
+        <v>0.01445458671185768</v>
+      </c>
+      <c r="T16">
+        <v>0.01445458671185768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.524757</v>
+      </c>
+      <c r="H17">
+        <v>10.574271</v>
+      </c>
+      <c r="I17">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J17">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>47.53430066666667</v>
+      </c>
+      <c r="N17">
+        <v>142.602902</v>
+      </c>
+      <c r="O17">
+        <v>0.2298097923041026</v>
+      </c>
+      <c r="P17">
+        <v>0.2298097923041026</v>
+      </c>
+      <c r="Q17">
+        <v>167.546859014938</v>
+      </c>
+      <c r="R17">
+        <v>1507.921731134442</v>
+      </c>
+      <c r="S17">
+        <v>0.125080818751882</v>
+      </c>
+      <c r="T17">
+        <v>0.125080818751882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.524757</v>
+      </c>
+      <c r="H18">
+        <v>10.574271</v>
+      </c>
+      <c r="I18">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J18">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.976569</v>
+      </c>
+      <c r="N18">
+        <v>155.929707</v>
+      </c>
+      <c r="O18">
+        <v>0.2512864259922955</v>
+      </c>
+      <c r="P18">
+        <v>0.2512864259922956</v>
+      </c>
+      <c r="Q18">
+        <v>183.204775418733</v>
+      </c>
+      <c r="R18">
+        <v>1648.842978768597</v>
+      </c>
+      <c r="S18">
+        <v>0.136770115795407</v>
+      </c>
+      <c r="T18">
+        <v>0.136770115795407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.524757</v>
+      </c>
+      <c r="H19">
+        <v>10.574271</v>
+      </c>
+      <c r="I19">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J19">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.88814033333333</v>
+      </c>
+      <c r="N19">
+        <v>131.664421</v>
+      </c>
+      <c r="O19">
+        <v>0.2121820300953617</v>
+      </c>
+      <c r="P19">
+        <v>0.2121820300953618</v>
+      </c>
+      <c r="Q19">
+        <v>154.695029856899</v>
+      </c>
+      <c r="R19">
+        <v>1392.255268712091</v>
+      </c>
+      <c r="S19">
+        <v>0.1154863845559923</v>
+      </c>
+      <c r="T19">
+        <v>0.1154863845559923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.524757</v>
+      </c>
+      <c r="H20">
+        <v>10.574271</v>
+      </c>
+      <c r="I20">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J20">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>54.95204066666667</v>
+      </c>
+      <c r="N20">
+        <v>164.856122</v>
+      </c>
+      <c r="O20">
+        <v>0.2656716702502996</v>
+      </c>
+      <c r="P20">
+        <v>0.2656716702502997</v>
+      </c>
+      <c r="Q20">
+        <v>193.692590004118</v>
+      </c>
+      <c r="R20">
+        <v>1743.233310037062</v>
+      </c>
+      <c r="S20">
+        <v>0.1445997130971441</v>
+      </c>
+      <c r="T20">
+        <v>0.1445997130971441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.524757</v>
+      </c>
+      <c r="H21">
+        <v>10.574271</v>
+      </c>
+      <c r="I21">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J21">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.490878</v>
+      </c>
+      <c r="N21">
+        <v>25.472634</v>
+      </c>
+      <c r="O21">
+        <v>0.04105008135794053</v>
+      </c>
+      <c r="P21">
+        <v>0.04105008135794054</v>
+      </c>
+      <c r="Q21">
+        <v>29.928281666646</v>
+      </c>
+      <c r="R21">
+        <v>269.354534999814</v>
+      </c>
+      <c r="S21">
+        <v>0.02234272845644493</v>
+      </c>
+      <c r="T21">
+        <v>0.02234272845644493</v>
       </c>
     </row>
   </sheetData>
